--- a/Week 4/Weekly Report 4.xlsx
+++ b/Week 4/Weekly Report 4.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 4" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,8 +24,96 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: just planned, have not started implementing yet
+In Progress: planned and doing, but have not completed yet
+Completed: planned and completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: just planned, have not started implementing yet
+In Progress: planned and doing, but have not completed yet
+Completed: planned and completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: issue occurred, no solution yet
+In Progress: occurred and handling issue
+Completed: occurred and handled issue</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>+ Đinh Tiến Lâm(lamdthe153097).</t>
   </si>
@@ -178,12 +267,141 @@
   <si>
     <t>PROJECT REPORT</t>
   </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>20/09/2021 - 24/09/2021</t>
+  </si>
+  <si>
+    <t>I. Status Report</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Project Work Item</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Notes (Work Item in Details)</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ready for the project </t>
+  </si>
+  <si>
+    <t>Created working environment in Github for group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed in slot 8 (Monday, September 20, 2021) </t>
+  </si>
+  <si>
+    <t>Learn how to connect Github and NetBean 8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed in slot 8 (Monday, September 20, 2021) based on the video I sent in the chat box </t>
+  </si>
+  <si>
+    <t>II. Team Contribution</t>
+  </si>
+  <si>
+    <t>Project Task</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Notes (Task Details, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the Data Dictionary section </t>
+  </si>
+  <si>
+    <t>Ngô Thị Ngọc Mai</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the Architecture Design section </t>
+  </si>
+  <si>
+    <t>Bạch Ngọc Minh Châu&amp;Nguyễn Gia Phú&amp;Nguyễn Duy Mạnh</t>
+  </si>
+  <si>
+    <t>Update ProductBackLog&amp;SRS Documents&amp;Weekly Report for Week 3</t>
+  </si>
+  <si>
+    <t>Đinh Tiến Lâm &amp; Trần Văn Đức</t>
+  </si>
+  <si>
+    <t>III. Project Issues</t>
+  </si>
+  <si>
+    <t>Project Issue</t>
+  </si>
+  <si>
+    <t>Notes (Solution, Suggestion, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When creating an account on Github, some of you did not register under gmail @fpt.edu.vn or set up an illegal name. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">problem solved </t>
+  </si>
+  <si>
+    <t>IV. Next Week Plan</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Memtor</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>21h - 22h30 (28/09/2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some concepts and some simple syntax </t>
+  </si>
+  <si>
+    <t>Trần Văn Đức</t>
+  </si>
+  <si>
+    <t>V. Other Project Masters/Suggestions</t>
+  </si>
+  <si>
+    <t>Project Matter/Suggestions</t>
+  </si>
+  <si>
+    <t>Raised By</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Recording Link</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,8 +542,80 @@
       <color rgb="FFFF0000"/>
       <name val="VNI-Swiss-Condense"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +628,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF2CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -347,11 +655,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -410,9 +795,55 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,7 +861,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Red Orange">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,34 +869,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="505046"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="E84C22"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="FFBD47"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="B64926"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="FF8427"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="CC9900"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="B22600"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="CC9900"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="666699"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -692,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -1011,4 +1442,285 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <picture r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="24" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="24" customWidth="1"/>
+    <col min="4" max="4" width="56.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="7.75" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>1</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>2</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>3</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>1</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>2</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>3</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>1</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
+        <v>1</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>1</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C18">
+      <formula1>"Pending, In Progress, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F22" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/Week 4/Weekly Report 4.xlsx
+++ b/Week 4/Weekly Report 4.xlsx
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>+ Đinh Tiến Lâm(lamdthe153097).</t>
   </si>
@@ -289,27 +289,9 @@
     <t>Notes (Work Item in Details)</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t xml:space="preserve">Ready for the project </t>
-  </si>
-  <si>
-    <t>Created working environment in Github for group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed in slot 8 (Monday, September 20, 2021) </t>
-  </si>
-  <si>
-    <t>Learn how to connect Github and NetBean 8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed in slot 8 (Monday, September 20, 2021) based on the video I sent in the chat box </t>
-  </si>
-  <si>
     <t>II. Team Contribution</t>
   </si>
   <si>
@@ -322,27 +304,12 @@
     <t>Notes (Task Details, etc.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Complete the Data Dictionary section </t>
-  </si>
-  <si>
     <t>Ngô Thị Ngọc Mai</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve">Complete the Architecture Design section </t>
-  </si>
-  <si>
-    <t>Bạch Ngọc Minh Châu&amp;Nguyễn Gia Phú&amp;Nguyễn Duy Mạnh</t>
-  </si>
-  <si>
-    <t>Update ProductBackLog&amp;SRS Documents&amp;Weekly Report for Week 3</t>
-  </si>
-  <si>
-    <t>Đinh Tiến Lâm &amp; Trần Văn Đức</t>
-  </si>
-  <si>
     <t>III. Project Issues</t>
   </si>
   <si>
@@ -352,12 +319,6 @@
     <t>Notes (Solution, Suggestion, etc.)</t>
   </si>
   <si>
-    <t xml:space="preserve">When creating an account on Github, some of you did not register under gmail @fpt.edu.vn or set up an illegal name. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">problem solved </t>
-  </si>
-  <si>
     <t>IV. Next Week Plan</t>
   </si>
   <si>
@@ -395,13 +356,55 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>VI. Tranning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organize file structure on personal computer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start programming for the project by dividing the work for each member according to the assigned screen. </t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Bạch Ngọc Minh Châu</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Mạnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia Phú</t>
+  </si>
+  <si>
+    <t>Đinh Tiến Lâm</t>
+  </si>
+  <si>
+    <t>Navbar + Footer + Error (Screen)</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>User Login + User Register</t>
+  </si>
+  <si>
+    <t>User Profile + Change Password + Reset Password</t>
+  </si>
+  <si>
+    <t>Blog List + Blog Detais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Details </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -611,6 +614,19 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -647,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -730,13 +746,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -837,6 +862,26 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1446,11 +1491,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,224 +1545,281 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>2</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="D10" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>3</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>28</v>
+      <c r="A11" s="30">
+        <v>1</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
+        <v>2</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>3</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>4</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>5</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>6</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
         <v>1</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B20" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="D23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
+        <v>1</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="44"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>1</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="F32" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34">
+        <v>1</v>
+      </c>
+      <c r="B33" s="35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>2</v>
-      </c>
-      <c r="B13" s="30" t="s">
+      <c r="C33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="D33" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>3</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="E33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
-        <v>1</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="F33" s="41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34">
-        <v>1</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>1</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7 C20 D11:D16">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F22" r:id="rId1"/>
+    <hyperlink ref="F33" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Week 4/Weekly Report 4.xlsx
+++ b/Week 4/Weekly Report 4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\SWP\swp391-onlineshop-gr1\Week 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CC159F-4B7F-4470-A3A5-DB1B2F2958BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -403,13 +404,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -758,137 +766,140 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1165,16 +1176,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:R28"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="27">
       <c r="G3" s="22"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
@@ -1182,19 +1193,19 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="18.75">
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="23.25">
       <c r="G5" s="19"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="18.75">
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:18" ht="27.75">
       <c r="A7" s="23"/>
       <c r="B7" s="11"/>
       <c r="C7" s="15"/>
@@ -1214,7 +1225,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:18" ht="27.75">
       <c r="A8" s="23"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
@@ -1234,7 +1245,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="27">
       <c r="G10" s="22"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -1244,10 +1255,10 @@
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="18.75">
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="23.25">
       <c r="G12" s="19"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18" t="s">
@@ -1255,10 +1266,10 @@
       </c>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="18.75">
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:18" ht="27.75">
       <c r="B14" s="11"/>
       <c r="C14" s="15"/>
       <c r="D14" s="14"/>
@@ -1279,7 +1290,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:18" ht="27.75">
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -1300,7 +1311,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="17" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" ht="20.25">
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1327,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" ht="20.25">
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1332,7 +1343,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" ht="20.25">
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1359,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:14" ht="20.25">
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1375,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" ht="20.25">
       <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
@@ -1380,7 +1391,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" ht="20.25">
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1407,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" ht="20.25">
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1423,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" ht="20.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1426,7 +1437,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" ht="20.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1440,7 +1451,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:14" ht="20.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1454,7 +1465,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" ht="20.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1468,7 +1479,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" ht="20.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1490,15 +1501,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.75" style="24" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="24" customWidth="1"/>
@@ -1509,7 +1520,7 @@
     <col min="7" max="16384" width="7.75" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
@@ -1517,21 +1528,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="25"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
@@ -1545,7 +1556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="30">
         <v>1</v>
       </c>
@@ -1559,7 +1570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="47.25">
       <c r="A7" s="30">
         <v>2</v>
       </c>
@@ -1573,12 +1584,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="31" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +1603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="30">
         <v>1</v>
       </c>
@@ -1602,11 +1613,11 @@
       <c r="C11" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="30">
         <v>2</v>
       </c>
@@ -1620,7 +1631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="30">
         <v>3</v>
       </c>
@@ -1634,7 +1645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="30">
         <v>4</v>
       </c>
@@ -1648,7 +1659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30">
       <c r="A15" s="30">
         <v>5</v>
       </c>
@@ -1662,7 +1673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="30">
         <v>6</v>
       </c>
@@ -1676,12 +1687,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="31" t="s">
         <v>14</v>
       </c>
@@ -1695,7 +1706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="30">
         <v>1</v>
       </c>
@@ -1705,12 +1716,12 @@
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="16.5" thickBot="1">
       <c r="A22" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1">
       <c r="A23" s="32" t="s">
         <v>14</v>
       </c>
@@ -1726,7 +1737,7 @@
       <c r="E23" s="46"/>
       <c r="F23" s="43"/>
     </row>
-    <row r="24" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
       <c r="A24" s="34">
         <v>1</v>
       </c>
@@ -1738,12 +1749,12 @@
       <c r="E24" s="45"/>
       <c r="F24" s="44"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75">
       <c r="A26" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="37" t="s">
         <v>14</v>
       </c>
@@ -1757,7 +1768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="38">
         <v>1</v>
       </c>
@@ -1767,12 +1778,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1">
       <c r="A31" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="16.5" thickBot="1">
       <c r="A32" s="32" t="s">
         <v>14</v>
       </c>
@@ -1792,7 +1803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="16.5" thickBot="1">
       <c r="A33" s="34">
         <v>1</v>
       </c>
@@ -1814,12 +1825,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7 C20 D11:D16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7 C20 D11:D16" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F33" r:id="rId1"/>
+    <hyperlink ref="F33" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Week 4/Weekly Report 4.xlsx
+++ b/Week 4/Weekly Report 4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\SWP\swp391-onlineshop-gr1\Week 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CC159F-4B7F-4470-A3A5-DB1B2F2958BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -404,8 +403,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -899,7 +898,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1176,16 +1175,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R28"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:18" ht="27">
+    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="G3" s="22"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
@@ -1193,19 +1192,19 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75">
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:18" ht="23.25">
+    <row r="5" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G5" s="19"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75">
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:18" ht="27.75">
+    <row r="7" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A7" s="23"/>
       <c r="B7" s="11"/>
       <c r="C7" s="15"/>
@@ -1225,7 +1224,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="27.75">
+    <row r="8" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A8" s="23"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
@@ -1245,7 +1244,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="27">
+    <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="G10" s="22"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -1255,10 +1254,10 @@
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:18" ht="18.75">
+    <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:18" ht="23.25">
+    <row r="12" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G12" s="19"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18" t="s">
@@ -1266,10 +1265,10 @@
       </c>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75">
+    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:18" ht="27.75">
+    <row r="14" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="B14" s="11"/>
       <c r="C14" s="15"/>
       <c r="D14" s="14"/>
@@ -1290,7 +1289,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="27.75">
+    <row r="15" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -1311,7 +1310,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="17" spans="3:14" ht="20.25">
+    <row r="17" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1326,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" ht="20.25">
+    <row r="18" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1343,7 +1342,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:14" ht="20.25">
+    <row r="19" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1358,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="3:14" ht="20.25">
+    <row r="20" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +1374,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="3:14" ht="20.25">
+    <row r="21" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1390,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="3:14" ht="20.25">
+    <row r="22" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1407,7 +1406,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="3:14" ht="20.25">
+    <row r="23" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1422,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:14" ht="20.25">
+    <row r="24" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1437,7 +1436,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="3:14" ht="20.25">
+    <row r="25" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1451,7 +1450,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="3:14" ht="20.25">
+    <row r="26" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1465,7 +1464,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="3:14" ht="20.25">
+    <row r="27" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1479,7 +1478,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:14" ht="20.25">
+    <row r="28" spans="3:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1501,15 +1500,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.75" style="24" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="24" customWidth="1"/>
@@ -1520,7 +1519,7 @@
     <col min="7" max="16384" width="7.75" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
@@ -1528,21 +1527,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>1</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="47.25">
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>2</v>
       </c>
@@ -1584,12 +1583,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>14</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>1</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>2</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>3</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>4</v>
       </c>
@@ -1659,7 +1658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>5</v>
       </c>
@@ -1673,7 +1672,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>6</v>
       </c>
@@ -1687,12 +1686,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>14</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>1</v>
       </c>
@@ -1716,12 +1715,12 @@
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1">
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>14</v>
       </c>
@@ -1737,7 +1736,7 @@
       <c r="E23" s="46"/>
       <c r="F23" s="43"/>
     </row>
-    <row r="24" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
+    <row r="24" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <v>1</v>
       </c>
@@ -1749,12 +1748,12 @@
       <c r="E24" s="45"/>
       <c r="F24" s="44"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>14</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>1</v>
       </c>
@@ -1778,12 +1777,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickBot="1">
+    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>14</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1">
+    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <v>1</v>
       </c>
@@ -1825,12 +1824,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7 C20 D11:D16" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7 C20 D11:D16">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F33" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F33" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Week 4/Weekly Report 4.xlsx
+++ b/Week 4/Weekly Report 4.xlsx
@@ -382,22 +382,22 @@
     <t>Đinh Tiến Lâm</t>
   </si>
   <si>
-    <t>Navbar + Footer + Error (Screen)</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
     <t>User Login + User Register</t>
   </si>
   <si>
-    <t>User Profile + Change Password + Reset Password</t>
-  </si>
-  <si>
     <t>Blog List + Blog Detais</t>
   </si>
   <si>
     <t xml:space="preserve">Product Details </t>
+  </si>
+  <si>
+    <t>Home Page &amp; Reset Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Profile + Change Password </t>
+  </si>
+  <si>
+    <t>Navbar + Footer + Error (Screen) + Product List</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,26 +1602,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>1</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>49</v>
+      <c r="B11" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>2</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>50</v>
+      <c r="B12" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>34</v>
@@ -1635,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>46</v>
@@ -1649,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>47</v>
@@ -1658,12 +1658,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>5</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>52</v>
+      <c r="B15" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>48</v>
@@ -1677,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>23</v>
